--- a/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
+++ b/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="134">
   <si>
     <t>TC_ID</t>
   </si>
@@ -375,6 +375,63 @@
   </si>
   <si>
     <t>ACC38982</t>
+  </si>
+  <si>
+    <t>CON23383</t>
+  </si>
+  <si>
+    <t>CON23384</t>
+  </si>
+  <si>
+    <t>CON23385</t>
+  </si>
+  <si>
+    <t>ACC39543</t>
+  </si>
+  <si>
+    <t>ACC39545</t>
+  </si>
+  <si>
+    <t>ACC39546</t>
+  </si>
+  <si>
+    <t>PRO6320</t>
+  </si>
+  <si>
+    <t>PRO6321</t>
+  </si>
+  <si>
+    <t>PRO6322</t>
+  </si>
+  <si>
+    <t>TT501</t>
+  </si>
+  <si>
+    <t>CON23389</t>
+  </si>
+  <si>
+    <t>CON23390</t>
+  </si>
+  <si>
+    <t>CON23392</t>
+  </si>
+  <si>
+    <t>ACC39562</t>
+  </si>
+  <si>
+    <t>ACC39563</t>
+  </si>
+  <si>
+    <t>ACC39564</t>
+  </si>
+  <si>
+    <t>PRO6324</t>
+  </si>
+  <si>
+    <t>PRO6325</t>
+  </si>
+  <si>
+    <t>PRO6326</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1256,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1290,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1375,7 +1432,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1409,7 +1466,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1496,7 +1553,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1530,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1866,7 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
         <v>62</v>

--- a/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
+++ b/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="234">
   <si>
     <t>TC_ID</t>
   </si>
@@ -540,6 +540,198 @@
   </si>
   <si>
     <t>TT505</t>
+  </si>
+  <si>
+    <t>CON23473</t>
+  </si>
+  <si>
+    <t>CON23474</t>
+  </si>
+  <si>
+    <t>CON23475</t>
+  </si>
+  <si>
+    <t>ACC39745</t>
+  </si>
+  <si>
+    <t>ACC39746</t>
+  </si>
+  <si>
+    <t>ACC39747</t>
+  </si>
+  <si>
+    <t>PRO6360</t>
+  </si>
+  <si>
+    <t>PRO6361</t>
+  </si>
+  <si>
+    <t>PRO6362</t>
+  </si>
+  <si>
+    <t>TT506</t>
+  </si>
+  <si>
+    <t>CON23477</t>
+  </si>
+  <si>
+    <t>CON23478</t>
+  </si>
+  <si>
+    <t>CON23479</t>
+  </si>
+  <si>
+    <t>CON23480</t>
+  </si>
+  <si>
+    <t>PRO6365</t>
+  </si>
+  <si>
+    <t>ACC39749</t>
+  </si>
+  <si>
+    <t>CON23485</t>
+  </si>
+  <si>
+    <t>PRO6367</t>
+  </si>
+  <si>
+    <t>ACC39751</t>
+  </si>
+  <si>
+    <t>CON23487</t>
+  </si>
+  <si>
+    <t>PRO6368</t>
+  </si>
+  <si>
+    <t>ACC39755</t>
+  </si>
+  <si>
+    <t>ACC39756</t>
+  </si>
+  <si>
+    <t>ACC39757</t>
+  </si>
+  <si>
+    <t>ACC39758</t>
+  </si>
+  <si>
+    <t>CON23488</t>
+  </si>
+  <si>
+    <t>CON23489</t>
+  </si>
+  <si>
+    <t>CON23490</t>
+  </si>
+  <si>
+    <t>PRO6369</t>
+  </si>
+  <si>
+    <t>PRO6370</t>
+  </si>
+  <si>
+    <t>PRO6371</t>
+  </si>
+  <si>
+    <t>ACC39760</t>
+  </si>
+  <si>
+    <t>ACC39761</t>
+  </si>
+  <si>
+    <t>ACC39762</t>
+  </si>
+  <si>
+    <t>TT507</t>
+  </si>
+  <si>
+    <t>CON23496</t>
+  </si>
+  <si>
+    <t>PRO6373</t>
+  </si>
+  <si>
+    <t>ACC39768</t>
+  </si>
+  <si>
+    <t>CON23497</t>
+  </si>
+  <si>
+    <t>PRO6374</t>
+  </si>
+  <si>
+    <t>ACC39769</t>
+  </si>
+  <si>
+    <t>CON23498</t>
+  </si>
+  <si>
+    <t>CON23499</t>
+  </si>
+  <si>
+    <t>ACC39771</t>
+  </si>
+  <si>
+    <t>CON23501</t>
+  </si>
+  <si>
+    <t>CON23502</t>
+  </si>
+  <si>
+    <t>CON23503</t>
+  </si>
+  <si>
+    <t>CON23504</t>
+  </si>
+  <si>
+    <t>CON23505</t>
+  </si>
+  <si>
+    <t>CON23506</t>
+  </si>
+  <si>
+    <t>ACC39774</t>
+  </si>
+  <si>
+    <t>ACC39775</t>
+  </si>
+  <si>
+    <t>ACC39776</t>
+  </si>
+  <si>
+    <t>PRO6376</t>
+  </si>
+  <si>
+    <t>PRO6378</t>
+  </si>
+  <si>
+    <t>TT508</t>
+  </si>
+  <si>
+    <t>CON23508</t>
+  </si>
+  <si>
+    <t>CON23509</t>
+  </si>
+  <si>
+    <t>ACC39779</t>
+  </si>
+  <si>
+    <t>CON23511</t>
+  </si>
+  <si>
+    <t>ACC39781</t>
+  </si>
+  <si>
+    <t>ACC39787</t>
+  </si>
+  <si>
+    <t>CON23512</t>
+  </si>
+  <si>
+    <t>ACC39789</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1421,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1455,7 +1647,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1698,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1540,7 +1732,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1574,7 +1766,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1661,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +2166,7 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="H2" t="s">
         <v>62</v>

--- a/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
+++ b/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="242">
   <si>
     <t>TC_ID</t>
   </si>
@@ -741,6 +741,21 @@
   </si>
   <si>
     <t>ACC40144</t>
+  </si>
+  <si>
+    <t>CON23858</t>
+  </si>
+  <si>
+    <t>CON23859</t>
+  </si>
+  <si>
+    <t>ACC40209</t>
+  </si>
+  <si>
+    <t>ACC40211</t>
+  </si>
+  <si>
+    <t>CON23862</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1656,7 +1671,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1722,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1741,7 +1756,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1775,7 +1790,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
+++ b/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="260">
   <si>
     <t>TC_ID</t>
   </si>
@@ -756,6 +756,60 @@
   </si>
   <si>
     <t>CON23862</t>
+  </si>
+  <si>
+    <t>CON23886</t>
+  </si>
+  <si>
+    <t>CON23887</t>
+  </si>
+  <si>
+    <t>CON23888</t>
+  </si>
+  <si>
+    <t>PRO6453</t>
+  </si>
+  <si>
+    <t>CON23890</t>
+  </si>
+  <si>
+    <t>PRO6454</t>
+  </si>
+  <si>
+    <t>PRO6455</t>
+  </si>
+  <si>
+    <t>PRO6456</t>
+  </si>
+  <si>
+    <t>PRO6457</t>
+  </si>
+  <si>
+    <t>PRO6458</t>
+  </si>
+  <si>
+    <t>ACC40258</t>
+  </si>
+  <si>
+    <t>ACC40259</t>
+  </si>
+  <si>
+    <t>ACC40260</t>
+  </si>
+  <si>
+    <t>ACC40261</t>
+  </si>
+  <si>
+    <t>ACC40262</t>
+  </si>
+  <si>
+    <t>ACC40263</t>
+  </si>
+  <si>
+    <t>TT513</t>
+  </si>
+  <si>
+    <t>CON23894</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1637,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1671,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1756,7 +1810,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1790,7 +1844,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1877,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1911,7 +1965,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +2244,7 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="H2" t="s">
         <v>62</v>

--- a/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
+++ b/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="283">
   <si>
     <t>TC_ID</t>
   </si>
@@ -810,6 +810,75 @@
   </si>
   <si>
     <t>CON23894</t>
+  </si>
+  <si>
+    <t>TT515</t>
+  </si>
+  <si>
+    <t>CON23907</t>
+  </si>
+  <si>
+    <t>CON23909</t>
+  </si>
+  <si>
+    <t>CON23910</t>
+  </si>
+  <si>
+    <t>CON23911</t>
+  </si>
+  <si>
+    <t>CON23912</t>
+  </si>
+  <si>
+    <t>CON23913</t>
+  </si>
+  <si>
+    <t>CON23915</t>
+  </si>
+  <si>
+    <t>CON23916</t>
+  </si>
+  <si>
+    <t>PRO6470</t>
+  </si>
+  <si>
+    <t>PRO6471</t>
+  </si>
+  <si>
+    <t>PRO6472</t>
+  </si>
+  <si>
+    <t>PRO6473</t>
+  </si>
+  <si>
+    <t>PRO6474</t>
+  </si>
+  <si>
+    <t>PRO6475</t>
+  </si>
+  <si>
+    <t>ACC40277</t>
+  </si>
+  <si>
+    <t>ACC40278</t>
+  </si>
+  <si>
+    <t>ACC40279</t>
+  </si>
+  <si>
+    <t>ACC40280</t>
+  </si>
+  <si>
+    <t>ACC40281</t>
+  </si>
+  <si>
+    <t>TT516</t>
+  </si>
+  <si>
+    <t>ACC40282</t>
+  </si>
+  <si>
+    <t>TT517</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1726,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1691,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1725,7 +1794,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1845,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1810,7 +1879,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1844,7 +1913,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1931,7 +2000,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1965,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2244,7 +2313,7 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
         <v>62</v>

--- a/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
+++ b/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="317">
   <si>
     <t>TC_ID</t>
   </si>
@@ -879,6 +879,108 @@
   </si>
   <si>
     <t>TT517</t>
+  </si>
+  <si>
+    <t>CON23938</t>
+  </si>
+  <si>
+    <t>CON23940</t>
+  </si>
+  <si>
+    <t>CON23941</t>
+  </si>
+  <si>
+    <t>CON23943</t>
+  </si>
+  <si>
+    <t>CON23944</t>
+  </si>
+  <si>
+    <t>PRO6490</t>
+  </si>
+  <si>
+    <t>PRO6491</t>
+  </si>
+  <si>
+    <t>PRO6492</t>
+  </si>
+  <si>
+    <t>PRO6493</t>
+  </si>
+  <si>
+    <t>PRO6494</t>
+  </si>
+  <si>
+    <t>PRO6495</t>
+  </si>
+  <si>
+    <t>ACC40313</t>
+  </si>
+  <si>
+    <t>ACC40314</t>
+  </si>
+  <si>
+    <t>ACC40315</t>
+  </si>
+  <si>
+    <t>ACC40316</t>
+  </si>
+  <si>
+    <t>ACC40317</t>
+  </si>
+  <si>
+    <t>ACC40318</t>
+  </si>
+  <si>
+    <t>CON23977</t>
+  </si>
+  <si>
+    <t>CON23978</t>
+  </si>
+  <si>
+    <t>CON23979</t>
+  </si>
+  <si>
+    <t>CON23980</t>
+  </si>
+  <si>
+    <t>CON23981</t>
+  </si>
+  <si>
+    <t>CON23982</t>
+  </si>
+  <si>
+    <t>PRO6515</t>
+  </si>
+  <si>
+    <t>PRO6516</t>
+  </si>
+  <si>
+    <t>PRO6517</t>
+  </si>
+  <si>
+    <t>PRO6518</t>
+  </si>
+  <si>
+    <t>PRO6519</t>
+  </si>
+  <si>
+    <t>ACC40358</t>
+  </si>
+  <si>
+    <t>ACC40359</t>
+  </si>
+  <si>
+    <t>ACC40360</t>
+  </si>
+  <si>
+    <t>ACC40361</t>
+  </si>
+  <si>
+    <t>ACC40362</t>
+  </si>
+  <si>
+    <t>ACC40363</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1828,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1760,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1794,7 +1896,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1947,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1879,7 +1981,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1913,7 +2015,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +2068,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2000,7 +2102,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2034,7 +2136,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
+++ b/ComcastCRMGUIFramework/testdata/TestscriptData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="333">
   <si>
     <t>TC_ID</t>
   </si>
@@ -981,6 +981,54 @@
   </si>
   <si>
     <t>ACC40363</t>
+  </si>
+  <si>
+    <t>PRO6537</t>
+  </si>
+  <si>
+    <t>ACC40402</t>
+  </si>
+  <si>
+    <t>ACC40403</t>
+  </si>
+  <si>
+    <t>PRO6538</t>
+  </si>
+  <si>
+    <t>ACC40404</t>
+  </si>
+  <si>
+    <t>PRO6539</t>
+  </si>
+  <si>
+    <t>PRO6548</t>
+  </si>
+  <si>
+    <t>PRO6549</t>
+  </si>
+  <si>
+    <t>ACC40416</t>
+  </si>
+  <si>
+    <t>ACC40418</t>
+  </si>
+  <si>
+    <t>PRO6550</t>
+  </si>
+  <si>
+    <t>ACC40419</t>
+  </si>
+  <si>
+    <t>ACC40420</t>
+  </si>
+  <si>
+    <t>PRO6551</t>
+  </si>
+  <si>
+    <t>ACC40421</t>
+  </si>
+  <si>
+    <t>PRO6552</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1862,7 +1910,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1896,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2102,7 +2150,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2136,7 +2184,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
